--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75567.97368491387</v>
+        <v>13935796.69435417</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75567.97368491387</v>
+        <v>13935796.69435417</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1268.511449318383</v>
+        <v>79498.93561744562</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1268.511449318383</v>
+        <v>79498.93561744562</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959569814.7278082</v>
+        <v>39857456.39330853</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8597.3570599952</v>
+        <v>981343.9359971699</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15930.36540456989</v>
+        <v>1767129.603944723</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23263.37374914459</v>
+        <v>2552915.271892275</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30596.38209371927</v>
+        <v>3338700.939839826</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37929.39043829397</v>
+        <v>4124486.607787377</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44824.43524629089</v>
+        <v>4888541.829622213</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51924.48426289875</v>
+        <v>5674327.497569759</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>59024.53327950663</v>
+        <v>6460113.165517306</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66124.58229611411</v>
+        <v>7245898.83346488</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73224.63131272154</v>
+        <v>8031684.501412535</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>80038.23459565706</v>
+        <v>8782273.154609181</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>87149.12892438486</v>
+        <v>9568058.822556738</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>94347.90894168483</v>
+        <v>10353844.49050448</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>101408.4007815924</v>
+        <v>11139630.15845201</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>108535.3855296306</v>
+        <v>11925415.82639961</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>346</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
